--- a/ecom-doc-230312/1_Ecommerce_Requirement Engineering.xlsx
+++ b/ecom-doc-230312/1_Ecommerce_Requirement Engineering.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATS-Ecommere-0312\ecom-doc-230312\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="15680" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15675" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="02.  Requirement Description" sheetId="4" r:id="rId3"/>
     <sheet name="03. User stories" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="134">
   <si>
     <t>Requirement steps</t>
   </si>
@@ -383,18 +388,314 @@
       <t xml:space="preserve"> all related products when I access a product page</t>
     </r>
   </si>
+  <si>
+    <t>DP-01</t>
+  </si>
+  <si>
+    <t>product_detail_page</t>
+  </si>
+  <si>
+    <t>PRODUCT DETAIL PAGE shall show the details of the product (colors, price, specifications,...)</t>
+  </si>
+  <si>
+    <t>DP-02</t>
+  </si>
+  <si>
+    <t>PRODUCT DETAIL PAGE shall have a section to compare products in the same series</t>
+  </si>
+  <si>
+    <t>DP-03</t>
+  </si>
+  <si>
+    <t>PRODUCT DETAIL PAGE shall have a guide on how to trade in old product</t>
+  </si>
+  <si>
+    <t>DP-04</t>
+  </si>
+  <si>
+    <t>PRODUCT DETAIL PAGE shall have button to navigate to add to cart/buy the product</t>
+  </si>
+  <si>
+    <t>SF-01</t>
+  </si>
+  <si>
+    <t>store_finder</t>
+  </si>
+  <si>
+    <t>STORE FINDER PAGE shall have a search input for finding store with name or location</t>
+  </si>
+  <si>
+    <t>SF-02</t>
+  </si>
+  <si>
+    <t>STORE FINDER PAGE shall have a button to navigate to the complete store list</t>
+  </si>
+  <si>
+    <t>SF-03</t>
+  </si>
+  <si>
+    <t>STORE FINDER PAGE shall have a section displaying stores based on user's current location (the US)</t>
+  </si>
+  <si>
+    <t>SF-04</t>
+  </si>
+  <si>
+    <t>STORE FINDER PAGE shall have a section for recommendations (deals, trade-in program, 1-on-1 help onsite)</t>
+  </si>
+  <si>
+    <t>SF-05</t>
+  </si>
+  <si>
+    <t>STORE FINDER PAGE shall have a small news section</t>
+  </si>
+  <si>
+    <t>DP_01</t>
+  </si>
+  <si>
+    <t>apple.com/iphone-14</t>
+  </si>
+  <si>
+    <t>user clicks on "Learn more" link/from navbar</t>
+  </si>
+  <si>
+    <t>navigate to page</t>
+  </si>
+  <si>
+    <t>DP_02</t>
+  </si>
+  <si>
+    <t>user scroll down on the page</t>
+  </si>
+  <si>
+    <t>display the comparison table</t>
+  </si>
+  <si>
+    <t>DP_03</t>
+  </si>
+  <si>
+    <t>display a link to the guide</t>
+  </si>
+  <si>
+    <t>DP_04</t>
+  </si>
+  <si>
+    <t>user clicks on "Buy"</t>
+  </si>
+  <si>
+    <t>SF_01</t>
+  </si>
+  <si>
+    <t>apple.com/retail</t>
+  </si>
+  <si>
+    <t>user clicks on the "Find a store" quick link in the navbar</t>
+  </si>
+  <si>
+    <t>SF_02</t>
+  </si>
+  <si>
+    <t>apple.com/retail/storelist</t>
+  </si>
+  <si>
+    <t>user clicks on the "Complete store list" link in "apple.com/retail"</t>
+  </si>
+  <si>
+    <t>SF_03</t>
+  </si>
+  <si>
+    <t>display the stores carousel-styled</t>
+  </si>
+  <si>
+    <t>SF_04</t>
+  </si>
+  <si>
+    <t>display the recommendation with links to navigate to respective pages</t>
+  </si>
+  <si>
+    <t>display the news</t>
+  </si>
+  <si>
+    <t>- Display UI with product specs and information
+- A section to Display different color options
+- Compare button to navigate to comparison page</t>
+  </si>
+  <si>
+    <t>ST-7</t>
+  </si>
+  <si>
+    <t>PDD-01</t>
+  </si>
+  <si>
+    <t>PDD-02</t>
+  </si>
+  <si>
+    <t>ST-8</t>
+  </si>
+  <si>
+    <t>ST-9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a customer, I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">view </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all info and options of a specific product when I access a product detail page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a customer, I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">compare </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all products in the same series from a product detail page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a customer, I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">buy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a product from its detail page</t>
+    </r>
+  </si>
+  <si>
+    <t>PDD-03</t>
+  </si>
+  <si>
+    <t>ST-10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a customer, I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a complete list of stores from my location (country/region)</t>
+    </r>
+  </si>
+  <si>
+    <t>ST-11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a customer, I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for stores by name/location</t>
+    </r>
+  </si>
+  <si>
+    <t>ST-12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a customer, I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> recommendations and news from the store finder page</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,153 +727,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -588,8 +744,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,192 +774,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFD9E2F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -813,30 +814,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -852,213 +829,55 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1082,6 +901,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1090,77 +927,95 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="Input 2" xfId="2"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
@@ -1176,51 +1031,42 @@
     <dxf>
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Identifier" dataDxfId="0"/>
+    <tableColumn id="1" name="Identifier" dataDxfId="8"/>
     <tableColumn id="4" name="TAG"/>
-    <tableColumn id="2" name="Priority" dataDxfId="1"/>
-    <tableColumn id="3" name="Requirement" dataDxfId="2"/>
-    <tableColumn id="6" name="Use cases" dataDxfId="3"/>
+    <tableColumn id="2" name="Priority" dataDxfId="7"/>
+    <tableColumn id="3" name="Requirement" dataDxfId="6"/>
+    <tableColumn id="6" name="Use cases" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Identifier" dataDxfId="4"/>
-    <tableColumn id="2" name="Related Req" dataDxfId="5"/>
-    <tableColumn id="3" name="User Story" dataDxfId="6"/>
-    <tableColumn id="5" name="Size (points)" dataDxfId="7"/>
-    <tableColumn id="4" name="Time Estimation (mins)" dataDxfId="8"/>
+    <tableColumn id="2" name="Related Req" dataDxfId="3"/>
+    <tableColumn id="3" name="User Story" dataDxfId="2"/>
+    <tableColumn id="5" name="Size (points)" dataDxfId="1"/>
+    <tableColumn id="4" name="Time Estimation (mins)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1478,70 +1324,68 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="102.661764705882" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.6617647058824" customWidth="1"/>
+    <col min="2" max="2" width="102.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.2" spans="2:2">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15.2" spans="2:2">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.2" spans="2:2">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15.2" spans="2:2">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8308823529412" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8308823529412" style="1"/>
-    <col min="4" max="4" width="105.661764705882" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.8823529411765" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.8308823529412" style="2"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1"/>
+    <col min="4" max="4" width="105.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +1413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+    <row r="3" spans="1:5" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+    <row r="4" spans="1:5" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1591,18 +1435,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
+    <row r="5" spans="1:5" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1610,12 +1454,12 @@
         <v>20</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="15" spans="1:5">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1628,7 +1472,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="15" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1641,7 +1485,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="15" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1654,7 +1498,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="15" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1667,9 +1511,125 @@
       </c>
       <c r="E10" s="3"/>
     </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A12" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A13" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A14" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="20"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1677,714 +1637,1430 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116:C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.9779411764706" customWidth="1"/>
-    <col min="2" max="2" width="12.1470588235294" customWidth="1"/>
-    <col min="3" max="3" width="59.1544117647059" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="59.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" ht="15" spans="1:3">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" ht="15" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:3">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="16"/>
       <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" ht="60" spans="1:3">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:3" ht="63">
+      <c r="A5" s="16"/>
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="10"/>
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16"/>
       <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:3">
+      <c r="C7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.5">
       <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="10" ht="15" spans="1:3">
+      <c r="C8" s="15"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="15" spans="1:3">
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="10" t="s">
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="16"/>
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:3">
+      <c r="A15" s="16"/>
       <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="10"/>
+      <c r="C15" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="16"/>
       <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:3">
+      <c r="C16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.5">
       <c r="A17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="19" ht="15" spans="1:3">
+      <c r="C17" s="15"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" ht="15" spans="1:3">
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="10" t="s">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:3">
+      <c r="A23" s="16"/>
       <c r="B23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:3">
+      <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="10"/>
+      <c r="C24" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:3">
+      <c r="C25" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.5">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="28" ht="15" spans="1:3">
+      <c r="C26" s="15"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" ht="15" spans="1:3">
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="10" t="s">
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:3">
+      <c r="A31" s="16"/>
       <c r="B31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="10"/>
+    <row r="32" spans="1:3">
+      <c r="A32" s="16"/>
       <c r="B32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:3">
+      <c r="A33" s="16"/>
       <c r="B33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="10"/>
+      <c r="C33" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="16"/>
       <c r="B34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="1:3">
+      <c r="C34" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="31.5">
       <c r="A35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="37" ht="15" spans="1:3">
+      <c r="C35" s="15"/>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" ht="15" spans="1:3">
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="10" t="s">
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="10"/>
+      <c r="C39" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="16"/>
       <c r="B40" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" ht="30" spans="1:3">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:3" ht="31.5">
+      <c r="A41" s="16"/>
       <c r="B41" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="10"/>
+    <row r="42" spans="1:3">
+      <c r="A42" s="16"/>
       <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="10"/>
+      <c r="C42" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="16"/>
       <c r="B43" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" ht="15" spans="1:3">
+      <c r="C43" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="31.5">
       <c r="A44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="46" ht="15" spans="1:3">
+      <c r="C44" s="15"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" ht="15" spans="1:3">
+      <c r="C46" s="14"/>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="10" t="s">
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="10"/>
+      <c r="C48" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="16"/>
       <c r="B49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" ht="74" spans="1:3">
-      <c r="A50" s="10"/>
+    <row r="50" spans="1:3" ht="78.75">
+      <c r="A50" s="16"/>
       <c r="B50" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="10"/>
+    <row r="51" spans="1:3">
+      <c r="A51" s="16"/>
       <c r="B51" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="10"/>
+      <c r="C51" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="16"/>
       <c r="B52" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" ht="15" spans="1:3">
+      <c r="C52" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="31.5">
       <c r="A53" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="55" ht="15" spans="1:3">
+      <c r="C53" s="15"/>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" ht="15" spans="1:3">
+      <c r="C55" s="14"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="10" t="s">
+      <c r="C56" s="15"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="10"/>
+      <c r="C57" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="16"/>
       <c r="B58" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="10"/>
+    <row r="59" spans="1:3">
+      <c r="A59" s="16"/>
       <c r="B59" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="10"/>
+    <row r="60" spans="1:3">
+      <c r="A60" s="16"/>
       <c r="B60" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="10"/>
+      <c r="C60" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="16"/>
       <c r="B61" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" ht="15" spans="1:3">
+      <c r="C61" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="31.5">
       <c r="A62" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="9"/>
-    </row>
-    <row r="64" ht="15" spans="1:3">
+      <c r="C62" s="15"/>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="8"/>
-    </row>
-    <row r="65" ht="15" spans="1:3">
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="9"/>
-    </row>
-    <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="10" t="s">
+      <c r="C65" s="15"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="1:3">
-      <c r="A67" s="10"/>
+    <row r="67" spans="1:3">
+      <c r="A67" s="16"/>
       <c r="B67" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" ht="30" spans="1:3">
-      <c r="A68" s="10"/>
+    <row r="68" spans="1:3" ht="31.5">
+      <c r="A68" s="16"/>
       <c r="B68" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="10"/>
+    <row r="69" spans="1:3">
+      <c r="A69" s="16"/>
       <c r="B69" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" ht="15" spans="1:3">
-      <c r="A70" s="10"/>
+      <c r="C69" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="16"/>
       <c r="B70" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" ht="15" spans="1:3">
+      <c r="C70" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="31.5">
       <c r="A71" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="9"/>
-    </row>
-    <row r="73" ht="15" spans="1:3">
+      <c r="C71" s="15"/>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" ht="46" customHeight="1" spans="1:3">
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="1:3" ht="45.95" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="9"/>
-    </row>
-    <row r="75" ht="15" spans="1:3">
-      <c r="A75" s="10" t="s">
+      <c r="C74" s="15"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" ht="15" spans="1:3">
-      <c r="A76" s="10"/>
+    <row r="76" spans="1:3">
+      <c r="A76" s="16"/>
       <c r="B76" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" ht="60" spans="1:3">
-      <c r="A77" s="10"/>
+    <row r="77" spans="1:3" ht="63">
+      <c r="A77" s="16"/>
       <c r="B77" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" ht="15" spans="1:3">
-      <c r="A78" s="10"/>
+    <row r="78" spans="1:3">
+      <c r="A78" s="16"/>
       <c r="B78" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" ht="15" spans="1:3">
-      <c r="A79" s="10"/>
+      <c r="C78" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="16"/>
       <c r="B79" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" ht="15" spans="1:3">
+      <c r="C79" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="31.5">
       <c r="A80" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="9"/>
+      <c r="C80" s="15"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="37"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="35"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="26"/>
+      <c r="B85" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="47.25">
+      <c r="A86" s="26"/>
+      <c r="B86" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="26"/>
+      <c r="B87" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="26"/>
+      <c r="B88" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" s="15"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="37"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="40"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="26"/>
+      <c r="B94" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="26"/>
+      <c r="B95" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="26"/>
+      <c r="B96" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="26"/>
+      <c r="B97" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="15"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="37"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C101" s="15"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="26"/>
+      <c r="B103" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="26"/>
+      <c r="B104" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="26"/>
+      <c r="B105" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="26"/>
+      <c r="B106" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" s="15"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="37"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" s="15"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="26"/>
+      <c r="B112" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="26"/>
+      <c r="B113" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="26"/>
+      <c r="B114" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="26"/>
+      <c r="B115" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" s="15"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" s="37"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="15"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="38"/>
+      <c r="B121" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="38"/>
+      <c r="B122" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="38"/>
+      <c r="B123" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="38"/>
+      <c r="B124" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" s="15"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="17"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C127" s="37"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C128" s="15"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="38"/>
+      <c r="B130" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="38"/>
+      <c r="B131" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="38"/>
+      <c r="B132" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="38"/>
+      <c r="B133" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" s="15"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="17"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" s="37"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C137" s="15"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="38"/>
+      <c r="B139" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="38"/>
+      <c r="B140" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="38"/>
+      <c r="B141" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="38"/>
+      <c r="B142" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C143" s="15"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="17"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C145" s="37"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B146" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C146" s="15"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="38"/>
+      <c r="B148" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="31.5">
+      <c r="A149" s="38"/>
+      <c r="B149" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="38"/>
+      <c r="B150" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="38"/>
+      <c r="B151" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="15"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="17"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C154" s="37"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C155" s="15"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="38"/>
+      <c r="B157" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="38"/>
+      <c r="B158" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="38"/>
+      <c r="B159" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="38"/>
+      <c r="B160" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C161" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
+  <mergeCells count="72">
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A84:A88"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="A3:A7"/>
@@ -2396,33 +3072,56 @@
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A66:A70"/>
     <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.6617647058824" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6617647058824" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="85" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.6617647058824" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6617647058824" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.8308823529412" style="2"/>
+    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.2" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2439,7 +3138,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="1:5">
+    <row r="2" spans="1:5" ht="31.5">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -2452,7 +3151,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
@@ -2465,7 +3164,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="15" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -2478,7 +3177,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>70</v>
       </c>
@@ -2491,7 +3190,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
@@ -2504,7 +3203,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="15" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
@@ -2517,40 +3216,89 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
+    <row r="8" spans="1:5" ht="31.5">
+      <c r="A8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="15.2" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6">
         <f>SUM(E2:E9)/60</f>
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
